--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -49,12 +49,12 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -70,57 +70,57 @@
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -130,18 +130,21 @@
     <t>like</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -151,37 +154,34 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>learn</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>60</v>
@@ -644,16 +644,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.8125</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7258064516129032</v>
+        <v>0.671875</v>
       </c>
       <c r="C7">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.660377358490566</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,16 +894,16 @@
         <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.5797101449275363</v>
+        <v>0.5738880918220947</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6359223300970874</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.5652797704447633</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L9">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>303</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6181818181818182</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.4937759336099585</v>
+        <v>0.491701244813278</v>
       </c>
       <c r="L10">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M10">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6050420168067226</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.4565573770491803</v>
+        <v>0.4516393442622951</v>
       </c>
       <c r="L11">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M11">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5072463768115942</v>
+        <v>0.5014492753623189</v>
       </c>
       <c r="C12">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D12">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.3608562691131498</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L12">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="M12">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>209</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,37 +1123,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3984375</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13">
-        <v>51</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>77</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K13">
-        <v>0.3373493975903614</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L13">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3734939759036144</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K14">
-        <v>0.3174603174603174</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3649289099526066</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C15">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.3</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,38 +1273,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3622047244094488</v>
+        <v>0.3515625</v>
       </c>
       <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>83</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16">
+        <v>0.1847389558232932</v>
+      </c>
+      <c r="L16">
         <v>46</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>46</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>81</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16">
-        <v>0.2265625</v>
-      </c>
-      <c r="L16">
-        <v>29</v>
-      </c>
-      <c r="M16">
-        <v>29</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,38 +1323,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3578947368421053</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C17">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>62</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17">
+        <v>0.1827956989247312</v>
+      </c>
+      <c r="L17">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>34</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>61</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17">
-        <v>0.2043010752688172</v>
-      </c>
-      <c r="L17">
-        <v>38</v>
-      </c>
-      <c r="M17">
-        <v>38</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3370786516853932</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,31 +1391,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.1847389558232932</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>203</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,49 +1423,49 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2821782178217822</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19">
-        <v>57</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>145</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K19">
-        <v>0.1535087719298246</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L19">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>965</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2319587628865979</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.08021390374331551</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>344</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,31 +1541,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.07477243172951886</v>
+        <v>0.04</v>
       </c>
       <c r="L21">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1423</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,49 +1573,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1884057971014493</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>224</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22">
-        <v>0.048</v>
-      </c>
-      <c r="L22">
-        <v>36</v>
-      </c>
-      <c r="M22">
-        <v>38</v>
-      </c>
-      <c r="N22">
-        <v>0.95</v>
-      </c>
-      <c r="O22">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>714</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,13 +1599,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1582278481012658</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1649,25 +1625,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1560178306092125</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C24">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>568</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1675,25 +1651,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1556195965417868</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1701,13 +1677,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1290322580645161</v>
+        <v>0.15</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1719,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1727,13 +1703,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1265822784810127</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1745,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>276</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1753,13 +1729,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1211453744493392</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1771,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>399</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1779,13 +1755,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1161048689138577</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1797,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>236</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1805,13 +1781,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09315068493150686</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1823,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1831,13 +1807,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06935123042505593</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>0.06</v>
@@ -1849,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1857,25 +1833,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.06754530477759473</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="C32">
+        <v>39</v>
+      </c>
+      <c r="D32">
         <v>41</v>
       </c>
-      <c r="D32">
-        <v>42</v>
-      </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1883,25 +1859,51 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05830164765525982</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F33">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>743</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.044529262086514</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0.19</v>
+      </c>
+      <c r="F34">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
